--- a/biology/Zoologie/Ctenochaetus_striatus/Ctenochaetus_striatus.xlsx
+++ b/biology/Zoologie/Ctenochaetus_striatus/Ctenochaetus_striatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenochaetus striatus · Poisson-chirurgien strié, Poisson-chirurgien noir
-Ctenochaetus striatus, communément nommé Poisson-chirurgien strié[2], est une espèce de poissons marins de la famille des Acanthuridae.
-Le Poisson-chirurgien strié est présent dans les eaux tropicales de la région Indo-Pacifique; l'archipel d'Hawaii, les îles Marquises et l'île de Pâques sont exclus[1].
-Sa taille maximale est de 24 cm mais la taille généralement observée est de 18 cm [1].
+Ctenochaetus striatus, communément nommé Poisson-chirurgien strié, est une espèce de poissons marins de la famille des Acanthuridae.
+Le Poisson-chirurgien strié est présent dans les eaux tropicales de la région Indo-Pacifique; l'archipel d'Hawaii, les îles Marquises et l'île de Pâques sont exclus.
+Sa taille maximale est de 24 cm mais la taille généralement observée est de 18 cm .
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Synonymes taxonomiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acanthurus argenteus Quoy &amp; Gaimard, 1825
